--- a/dados/Controle.xlsx
+++ b/dados/Controle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="17040" yWindow="0" windowWidth="29040" windowHeight="12480" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="1035" windowWidth="23250" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Caixa" sheetId="1" state="visible" r:id="rId1"/>
@@ -168,10 +168,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -545,7 +545,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1104,19 +1104,57 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="n"/>
-      <c r="L11" s="3" t="n"/>
-      <c r="M11" s="3" t="n"/>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Compra</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>Parcelado</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>46047.54166666666</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1129,7 +1167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9080,6 +9118,2632 @@
         <v>31</v>
       </c>
       <c r="F306" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>100</v>
+      </c>
+      <c r="E307" t="n">
+        <v>31</v>
+      </c>
+      <c r="F307" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>1</v>
+      </c>
+      <c r="E308" t="n">
+        <v>30</v>
+      </c>
+      <c r="F308" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
+      <c r="E309" t="n">
+        <v>31</v>
+      </c>
+      <c r="F309" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
+      <c r="E310" t="n">
+        <v>31</v>
+      </c>
+      <c r="F310" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>100</v>
+      </c>
+      <c r="E311" t="n">
+        <v>31</v>
+      </c>
+      <c r="F311" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="n">
+        <v>30</v>
+      </c>
+      <c r="F312" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>1</v>
+      </c>
+      <c r="E313" t="n">
+        <v>31</v>
+      </c>
+      <c r="F313" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+      <c r="E314" t="n">
+        <v>31</v>
+      </c>
+      <c r="F314" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>31</v>
+      </c>
+      <c r="F315" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>100</v>
+      </c>
+      <c r="E316" t="n">
+        <v>31</v>
+      </c>
+      <c r="F316" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>100</v>
+      </c>
+      <c r="E317" t="n">
+        <v>31</v>
+      </c>
+      <c r="F317" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>100</v>
+      </c>
+      <c r="E318" t="n">
+        <v>31</v>
+      </c>
+      <c r="F318" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+      <c r="E319" t="n">
+        <v>30</v>
+      </c>
+      <c r="F319" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+      <c r="E320" t="n">
+        <v>31</v>
+      </c>
+      <c r="F320" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
+      <c r="E321" t="n">
+        <v>31</v>
+      </c>
+      <c r="F321" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
+      <c r="E322" t="n">
+        <v>31</v>
+      </c>
+      <c r="F322" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>100</v>
+      </c>
+      <c r="E323" t="n">
+        <v>31</v>
+      </c>
+      <c r="F323" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
+      </c>
+      <c r="E324" t="n">
+        <v>30</v>
+      </c>
+      <c r="F324" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+      <c r="E325" t="n">
+        <v>31</v>
+      </c>
+      <c r="F325" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>1</v>
+      </c>
+      <c r="E326" t="n">
+        <v>31</v>
+      </c>
+      <c r="F326" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>1</v>
+      </c>
+      <c r="E327" t="n">
+        <v>31</v>
+      </c>
+      <c r="F327" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>100</v>
+      </c>
+      <c r="E328" t="n">
+        <v>31</v>
+      </c>
+      <c r="F328" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>1</v>
+      </c>
+      <c r="E329" t="n">
+        <v>30</v>
+      </c>
+      <c r="F329" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>1</v>
+      </c>
+      <c r="E330" t="n">
+        <v>31</v>
+      </c>
+      <c r="F330" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="n">
+        <v>31</v>
+      </c>
+      <c r="F331" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>1</v>
+      </c>
+      <c r="E332" t="n">
+        <v>31</v>
+      </c>
+      <c r="F332" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>100</v>
+      </c>
+      <c r="E333" t="n">
+        <v>31</v>
+      </c>
+      <c r="F333" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>1</v>
+      </c>
+      <c r="E334" t="n">
+        <v>30</v>
+      </c>
+      <c r="F334" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>1</v>
+      </c>
+      <c r="E335" t="n">
+        <v>31</v>
+      </c>
+      <c r="F335" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>1</v>
+      </c>
+      <c r="E336" t="n">
+        <v>31</v>
+      </c>
+      <c r="F336" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>1</v>
+      </c>
+      <c r="E337" t="n">
+        <v>31</v>
+      </c>
+      <c r="F337" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>100</v>
+      </c>
+      <c r="E338" t="n">
+        <v>31</v>
+      </c>
+      <c r="F338" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>1</v>
+      </c>
+      <c r="E339" t="n">
+        <v>30</v>
+      </c>
+      <c r="F339" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" t="n">
+        <v>31</v>
+      </c>
+      <c r="F340" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>1</v>
+      </c>
+      <c r="E341" t="n">
+        <v>31</v>
+      </c>
+      <c r="F341" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>1</v>
+      </c>
+      <c r="E342" t="n">
+        <v>31</v>
+      </c>
+      <c r="F342" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>100</v>
+      </c>
+      <c r="E343" t="n">
+        <v>31</v>
+      </c>
+      <c r="F343" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>1</v>
+      </c>
+      <c r="E344" t="n">
+        <v>30</v>
+      </c>
+      <c r="F344" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>1</v>
+      </c>
+      <c r="E345" t="n">
+        <v>31</v>
+      </c>
+      <c r="F345" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>1</v>
+      </c>
+      <c r="E346" t="n">
+        <v>31</v>
+      </c>
+      <c r="F346" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>1</v>
+      </c>
+      <c r="E347" t="n">
+        <v>31</v>
+      </c>
+      <c r="F347" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>100</v>
+      </c>
+      <c r="E348" t="n">
+        <v>31</v>
+      </c>
+      <c r="F348" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>1</v>
+      </c>
+      <c r="E349" t="n">
+        <v>30</v>
+      </c>
+      <c r="F349" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>1</v>
+      </c>
+      <c r="E350" t="n">
+        <v>31</v>
+      </c>
+      <c r="F350" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>1</v>
+      </c>
+      <c r="E351" t="n">
+        <v>31</v>
+      </c>
+      <c r="F351" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>1</v>
+      </c>
+      <c r="E352" t="n">
+        <v>31</v>
+      </c>
+      <c r="F352" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>100</v>
+      </c>
+      <c r="E353" t="n">
+        <v>31</v>
+      </c>
+      <c r="F353" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>1</v>
+      </c>
+      <c r="E354" t="n">
+        <v>30</v>
+      </c>
+      <c r="F354" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>1</v>
+      </c>
+      <c r="E355" t="n">
+        <v>31</v>
+      </c>
+      <c r="F355" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>1</v>
+      </c>
+      <c r="E356" t="n">
+        <v>31</v>
+      </c>
+      <c r="F356" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>1</v>
+      </c>
+      <c r="E357" t="n">
+        <v>31</v>
+      </c>
+      <c r="F357" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>100</v>
+      </c>
+      <c r="E358" t="n">
+        <v>31</v>
+      </c>
+      <c r="F358" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>1</v>
+      </c>
+      <c r="E359" t="n">
+        <v>30</v>
+      </c>
+      <c r="F359" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>1</v>
+      </c>
+      <c r="E360" t="n">
+        <v>31</v>
+      </c>
+      <c r="F360" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>1</v>
+      </c>
+      <c r="E361" t="n">
+        <v>31</v>
+      </c>
+      <c r="F361" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>1</v>
+      </c>
+      <c r="E362" t="n">
+        <v>31</v>
+      </c>
+      <c r="F362" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>100</v>
+      </c>
+      <c r="E363" t="n">
+        <v>31</v>
+      </c>
+      <c r="F363" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>1</v>
+      </c>
+      <c r="E364" t="n">
+        <v>30</v>
+      </c>
+      <c r="F364" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>1</v>
+      </c>
+      <c r="E365" t="n">
+        <v>31</v>
+      </c>
+      <c r="F365" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>1</v>
+      </c>
+      <c r="E366" t="n">
+        <v>31</v>
+      </c>
+      <c r="F366" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>1</v>
+      </c>
+      <c r="E367" t="n">
+        <v>31</v>
+      </c>
+      <c r="F367" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>100</v>
+      </c>
+      <c r="E368" t="n">
+        <v>31</v>
+      </c>
+      <c r="F368" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>1</v>
+      </c>
+      <c r="E369" t="n">
+        <v>30</v>
+      </c>
+      <c r="F369" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
+      <c r="E370" t="n">
+        <v>31</v>
+      </c>
+      <c r="F370" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>1</v>
+      </c>
+      <c r="E371" t="n">
+        <v>31</v>
+      </c>
+      <c r="F371" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>1</v>
+      </c>
+      <c r="E372" t="n">
+        <v>31</v>
+      </c>
+      <c r="F372" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>100</v>
+      </c>
+      <c r="E373" t="n">
+        <v>31</v>
+      </c>
+      <c r="F373" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
+      <c r="E374" t="n">
+        <v>30</v>
+      </c>
+      <c r="F374" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>1</v>
+      </c>
+      <c r="E375" t="n">
+        <v>31</v>
+      </c>
+      <c r="F375" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>1</v>
+      </c>
+      <c r="E376" t="n">
+        <v>31</v>
+      </c>
+      <c r="F376" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
+      <c r="E377" t="n">
+        <v>31</v>
+      </c>
+      <c r="F377" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>100</v>
+      </c>
+      <c r="E378" t="n">
+        <v>31</v>
+      </c>
+      <c r="F378" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>1</v>
+      </c>
+      <c r="E379" t="n">
+        <v>30</v>
+      </c>
+      <c r="F379" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
+      <c r="E380" t="n">
+        <v>31</v>
+      </c>
+      <c r="F380" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>1</v>
+      </c>
+      <c r="E381" t="n">
+        <v>31</v>
+      </c>
+      <c r="F381" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>1</v>
+      </c>
+      <c r="E382" t="n">
+        <v>31</v>
+      </c>
+      <c r="F382" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>100</v>
+      </c>
+      <c r="E383" t="n">
+        <v>31</v>
+      </c>
+      <c r="F383" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>1</v>
+      </c>
+      <c r="E384" t="n">
+        <v>30</v>
+      </c>
+      <c r="F384" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>1</v>
+      </c>
+      <c r="E385" t="n">
+        <v>31</v>
+      </c>
+      <c r="F385" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>1</v>
+      </c>
+      <c r="E386" t="n">
+        <v>31</v>
+      </c>
+      <c r="F386" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>1</v>
+      </c>
+      <c r="E387" t="n">
+        <v>31</v>
+      </c>
+      <c r="F387" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>100</v>
+      </c>
+      <c r="E388" t="n">
+        <v>31</v>
+      </c>
+      <c r="F388" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>1</v>
+      </c>
+      <c r="E389" t="n">
+        <v>30</v>
+      </c>
+      <c r="F389" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>1</v>
+      </c>
+      <c r="E390" t="n">
+        <v>31</v>
+      </c>
+      <c r="F390" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>1</v>
+      </c>
+      <c r="E391" t="n">
+        <v>31</v>
+      </c>
+      <c r="F391" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>1</v>
+      </c>
+      <c r="E392" t="n">
+        <v>31</v>
+      </c>
+      <c r="F392" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>100</v>
+      </c>
+      <c r="E393" t="n">
+        <v>31</v>
+      </c>
+      <c r="F393" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>1</v>
+      </c>
+      <c r="E394" t="n">
+        <v>30</v>
+      </c>
+      <c r="F394" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>1</v>
+      </c>
+      <c r="E395" t="n">
+        <v>31</v>
+      </c>
+      <c r="F395" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>1</v>
+      </c>
+      <c r="E396" t="n">
+        <v>31</v>
+      </c>
+      <c r="F396" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>1</v>
+      </c>
+      <c r="E397" t="n">
+        <v>31</v>
+      </c>
+      <c r="F397" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>100</v>
+      </c>
+      <c r="E398" t="n">
+        <v>31</v>
+      </c>
+      <c r="F398" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>1</v>
+      </c>
+      <c r="E399" t="n">
+        <v>30</v>
+      </c>
+      <c r="F399" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>1</v>
+      </c>
+      <c r="E400" t="n">
+        <v>31</v>
+      </c>
+      <c r="F400" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>1</v>
+      </c>
+      <c r="E401" t="n">
+        <v>31</v>
+      </c>
+      <c r="F401" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>1</v>
+      </c>
+      <c r="E402" t="n">
+        <v>31</v>
+      </c>
+      <c r="F402" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>100</v>
+      </c>
+      <c r="E403" t="n">
+        <v>31</v>
+      </c>
+      <c r="F403" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>1</v>
+      </c>
+      <c r="E404" t="n">
+        <v>30</v>
+      </c>
+      <c r="F404" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>1</v>
+      </c>
+      <c r="E405" t="n">
+        <v>31</v>
+      </c>
+      <c r="F405" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>1</v>
+      </c>
+      <c r="E406" t="n">
+        <v>31</v>
+      </c>
+      <c r="F406" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>1</v>
+      </c>
+      <c r="E407" t="n">
+        <v>31</v>
+      </c>
+      <c r="F407" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -9746,7 +12410,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7935</v>
+        <v>10114</v>
       </c>
       <c r="E6" t="n">
         <v>31</v>
@@ -9766,7 +12430,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -9786,7 +12450,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -9806,7 +12470,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -9824,7 +12488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9860,7 +12524,12 @@
       </c>
       <c r="F1" s="9" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Valor total pendente</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Data vencimento</t>
         </is>
       </c>
     </row>
@@ -9884,7 +12553,10 @@
       <c r="E2" t="n">
         <v>50</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G2" s="11" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -9908,7 +12580,10 @@
       <c r="E3" t="n">
         <v>50</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G3" s="11" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -9932,7 +12607,10 @@
       <c r="E4" t="n">
         <v>50</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G4" s="11" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -9956,7 +12634,10 @@
       <c r="E5" t="n">
         <v>50</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G5" s="11" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -9978,9 +12659,12 @@
         <v>12.5</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" s="11" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G6" s="11" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10002,9 +12686,12 @@
         <v>12.5</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" s="11" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G7" s="11" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10026,9 +12713,12 @@
         <v>12.5</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" s="11" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G8" s="11" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10050,9 +12740,12 @@
         <v>12.5</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" s="11" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G9" s="11" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10070,9 +12763,16 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" s="11" t="n">
+      <c r="D10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" s="11" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10090,9 +12790,16 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" s="11" t="n">
+      <c r="D11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G11" s="11" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10110,9 +12817,16 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" s="11" t="n">
+      <c r="D12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25</v>
+      </c>
+      <c r="G12" s="11" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10130,9 +12844,16 @@
       <c r="C13" t="n">
         <v>4</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" s="11" t="n">
+      <c r="D13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G13" s="11" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10156,7 +12877,10 @@
       <c r="E14" t="n">
         <v>50</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="11" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10180,7 +12904,10 @@
       <c r="E15" t="n">
         <v>50</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G15" s="11" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10204,7 +12931,10 @@
       <c r="E16" t="n">
         <v>50</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" t="n">
+        <v>25</v>
+      </c>
+      <c r="G16" s="11" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10228,103 +12958,10 @@
       <c r="E17" t="n">
         <v>50</v>
       </c>
-      <c r="F17" s="11" t="n">
-        <v>46167.54166666666</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="F17" t="n">
         <v>12.5</v>
       </c>
-      <c r="E18" t="n">
-        <v>50</v>
-      </c>
-      <c r="F18" s="11" t="n">
-        <v>46078.54166666666</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>50</v>
-      </c>
-      <c r="F19" s="11" t="n">
-        <v>46106.54166666666</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>50</v>
-      </c>
-      <c r="F20" s="11" t="n">
-        <v>46137.54166666666</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>50</v>
-      </c>
-      <c r="F21" s="11" t="n">
+      <c r="G17" s="11" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10339,55 +12976,484 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L14:L15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="9.140625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="12.5703125" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="10.28515625" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="9.140625" customWidth="1" style="3" min="6" max="6"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Cliente</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Nome do produto</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Parcelas Restantes</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Parcela</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Valor parcela</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Valor total</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>Valor total pendente</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Data vencimento</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G11" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G12" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>31</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>46167.54166666666</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dados/Controle.xlsx
+++ b/dados/Controle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Caixa" sheetId="1" state="visible" r:id="rId1"/>
@@ -86,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -99,12 +99,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -510,67 +504,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Operação</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Nome do produto</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Participante</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Tamanho</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Sexo</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Quantidade</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Desconto</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Forma Pag</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Parcelas</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>Valor unitario compra</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>Valor unitario venda</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>Valor recebido</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -605,7 +599,7 @@
       <c r="F2" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="12" t="n">
+      <c r="G2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -616,16 +610,16 @@
       <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="K2" s="12" t="n">
+      <c r="J2" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K2" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M2" s="13" t="n">
+      <c r="M2" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -658,7 +652,7 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="inlineStr">
@@ -669,16 +663,16 @@
       <c r="I3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="K3" s="12" t="n">
+      <c r="K3" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="M3" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -711,7 +705,7 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="inlineStr">
@@ -722,16 +716,16 @@
       <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="K4" s="12" t="n">
+      <c r="J4" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K4" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M4" s="13" t="n">
+      <c r="M4" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -762,7 +756,7 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -773,16 +767,16 @@
       <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="K5" s="12" t="n">
+      <c r="J5" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K5" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M5" s="13" t="n">
+      <c r="M5" s="11" t="n">
         <v>46047.45833333334</v>
       </c>
     </row>
@@ -815,7 +809,7 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="inlineStr">
@@ -826,16 +820,16 @@
       <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="K6" s="12" t="n">
+      <c r="J6" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K6" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M6" s="13" t="n">
+      <c r="M6" s="11" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -868,7 +862,7 @@
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="inlineStr">
@@ -879,16 +873,16 @@
       <c r="I7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="K7" s="12" t="n">
+      <c r="J7" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K7" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="L7" s="12" t="n">
+      <c r="L7" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M7" s="13" t="n">
+      <c r="M7" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -921,7 +915,7 @@
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="inlineStr">
@@ -932,16 +926,16 @@
       <c r="I8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="K8" s="12" t="n">
+      <c r="J8" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K8" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M8" s="13" t="n">
+      <c r="M8" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -974,7 +968,7 @@
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="inlineStr">
@@ -985,16 +979,16 @@
       <c r="I9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="K9" s="12" t="n">
+      <c r="J9" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K9" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="L9" s="12" t="n">
+      <c r="L9" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M9" s="13" t="n">
+      <c r="M9" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1027,7 +1021,7 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="inlineStr">
@@ -1038,16 +1032,16 @@
       <c r="I10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="K10" s="12" t="n">
+      <c r="J10" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K10" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="L10" s="12" t="n">
+      <c r="L10" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M10" s="13" t="n">
+      <c r="M10" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1080,7 +1074,7 @@
       <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="inlineStr">
@@ -1091,16 +1085,16 @@
       <c r="I11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="K11" s="12" t="n">
+      <c r="J11" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K11" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M11" s="13" t="n">
+      <c r="M11" s="11" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -1115,7 +1109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1132,32 +1126,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Nome do produto</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Tamanho</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Sexo</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Quantidade</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Valor unitario compra</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Data da compra</t>
         </is>
@@ -1182,10 +1176,10 @@
       <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" s="13" t="n">
+      <c r="E2" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1208,10 +1202,10 @@
       <c r="D3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F3" s="13" t="n">
+      <c r="E3" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1234,10 +1228,10 @@
       <c r="D4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E4" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F4" s="13" t="n">
+      <c r="E4" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1260,10 +1254,10 @@
       <c r="D5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E5" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F5" s="13" t="n">
+      <c r="E5" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1286,10 +1280,10 @@
       <c r="D6" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E6" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F6" s="13" t="n">
+      <c r="E6" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1312,10 +1306,10 @@
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -1338,10 +1332,10 @@
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F8" s="13" t="n">
+      <c r="E8" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -1364,10 +1358,10 @@
       <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F9" s="13" t="n">
+      <c r="E9" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1390,10 +1384,10 @@
       <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F10" s="13" t="n">
+      <c r="E10" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1416,10 +1410,10 @@
       <c r="D11" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E11" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F11" s="13" t="n">
+      <c r="E11" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1442,10 +1436,10 @@
       <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -1468,10 +1462,10 @@
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F13" s="13" t="n">
+      <c r="E13" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -1494,10 +1488,10 @@
       <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F14" s="13" t="n">
+      <c r="E14" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1520,10 +1514,10 @@
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F15" s="13" t="n">
+      <c r="E15" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1546,10 +1540,10 @@
       <c r="D16" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E16" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F16" s="13" t="n">
+      <c r="E16" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1572,10 +1566,10 @@
       <c r="D17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -1598,10 +1592,10 @@
       <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F18" s="13" t="n">
+      <c r="E18" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -1624,10 +1618,10 @@
       <c r="D19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F19" s="13" t="n">
+      <c r="E19" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1650,10 +1644,10 @@
       <c r="D20" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E20" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F20" s="13" t="n">
+      <c r="E20" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1676,10 +1670,10 @@
       <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F21" s="13" t="n">
+      <c r="F21" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -1702,10 +1696,10 @@
       <c r="D22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F22" s="13" t="n">
+      <c r="E22" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -1728,10 +1722,10 @@
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F23" s="13" t="n">
+      <c r="E23" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F23" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1754,10 +1748,10 @@
       <c r="D24" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E24" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F24" s="13" t="n">
+      <c r="E24" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1780,10 +1774,10 @@
       <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F25" s="13" t="n">
+      <c r="F25" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -1806,10 +1800,10 @@
       <c r="D26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F26" s="13" t="n">
+      <c r="E26" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F26" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -1832,10 +1826,10 @@
       <c r="D27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F27" s="13" t="n">
+      <c r="E27" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F27" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1858,10 +1852,10 @@
       <c r="D28" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E28" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F28" s="13" t="n">
+      <c r="E28" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1884,10 +1878,10 @@
       <c r="D29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F29" s="13" t="n">
+      <c r="F29" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -1910,10 +1904,10 @@
       <c r="D30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F30" s="13" t="n">
+      <c r="E30" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F30" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -1936,10 +1930,10 @@
       <c r="D31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F31" s="13" t="n">
+      <c r="E31" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F31" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1962,10 +1956,10 @@
       <c r="D32" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E32" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F32" s="13" t="n">
+      <c r="E32" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1988,10 +1982,10 @@
       <c r="D33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="12" t="n">
+      <c r="E33" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F33" s="13" t="n">
+      <c r="F33" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -2014,10 +2008,10 @@
       <c r="D34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F34" s="13" t="n">
+      <c r="E34" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F34" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -2040,10 +2034,10 @@
       <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F35" s="13" t="n">
+      <c r="E35" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F35" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2066,10 +2060,10 @@
       <c r="D36" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E36" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F36" s="13" t="n">
+      <c r="E36" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F36" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -2092,10 +2086,10 @@
       <c r="D37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="12" t="n">
+      <c r="E37" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F37" s="13" t="n">
+      <c r="F37" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -2118,10 +2112,10 @@
       <c r="D38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F38" s="13" t="n">
+      <c r="E38" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F38" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -2144,10 +2138,10 @@
       <c r="D39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F39" s="13" t="n">
+      <c r="E39" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F39" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2170,10 +2164,10 @@
       <c r="D40" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E40" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F40" s="13" t="n">
+      <c r="E40" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F40" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -2196,10 +2190,10 @@
       <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="12" t="n">
+      <c r="E41" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F41" s="13" t="n">
+      <c r="F41" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -2222,10 +2216,10 @@
       <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F42" s="13" t="n">
+      <c r="E42" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F42" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -2248,10 +2242,10 @@
       <c r="D43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E43" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F43" s="13" t="n">
+      <c r="E43" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F43" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2274,10 +2268,10 @@
       <c r="D44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F44" s="13" t="n">
+      <c r="E44" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F44" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2300,10 +2294,10 @@
       <c r="D45" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E45" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F45" s="13" t="n">
+      <c r="E45" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F45" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -2326,10 +2320,10 @@
       <c r="D46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="12" t="n">
+      <c r="E46" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F46" s="13" t="n">
+      <c r="F46" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -2352,10 +2346,10 @@
       <c r="D47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E47" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F47" s="13" t="n">
+      <c r="E47" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F47" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -2378,10 +2372,10 @@
       <c r="D48" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F48" s="13" t="n">
+      <c r="E48" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F48" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2404,10 +2398,10 @@
       <c r="D49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E49" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F49" s="13" t="n">
+      <c r="E49" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F49" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2430,10 +2424,10 @@
       <c r="D50" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E50" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F50" s="13" t="n">
+      <c r="E50" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F50" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -2456,10 +2450,10 @@
       <c r="D51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E51" s="12" t="n">
+      <c r="E51" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F51" s="13" t="n">
+      <c r="F51" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -2482,10 +2476,10 @@
       <c r="D52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E52" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F52" s="13" t="n">
+      <c r="E52" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F52" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -2508,10 +2502,10 @@
       <c r="D53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F53" s="13" t="n">
+      <c r="E53" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F53" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2534,10 +2528,10 @@
       <c r="D54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E54" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F54" s="13" t="n">
+      <c r="E54" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F54" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2560,10 +2554,10 @@
       <c r="D55" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E55" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F55" s="13" t="n">
+      <c r="E55" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F55" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -2586,10 +2580,10 @@
       <c r="D56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="12" t="n">
+      <c r="E56" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F56" s="13" t="n">
+      <c r="F56" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -2612,10 +2606,10 @@
       <c r="D57" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E57" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F57" s="13" t="n">
+      <c r="E57" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F57" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -2638,10 +2632,10 @@
       <c r="D58" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E58" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F58" s="13" t="n">
+      <c r="E58" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F58" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -2664,10 +2658,10 @@
       <c r="D59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E59" s="12" t="n">
+      <c r="E59" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F59" s="13" t="n">
+      <c r="F59" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -2690,10 +2684,10 @@
       <c r="D60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F60" s="13" t="n">
+      <c r="E60" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F60" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -2716,10 +2710,10 @@
       <c r="D61" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E61" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F61" s="13" t="n">
+      <c r="E61" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F61" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -2742,10 +2736,10 @@
       <c r="D62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E62" s="12" t="n">
+      <c r="E62" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F62" s="13" t="n">
+      <c r="F62" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -2768,10 +2762,10 @@
       <c r="D63" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E63" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F63" s="13" t="n">
+      <c r="E63" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F63" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -2794,10 +2788,10 @@
       <c r="D64" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E64" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F64" s="13" t="n">
+      <c r="E64" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F64" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2820,10 +2814,10 @@
       <c r="D65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E65" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F65" s="13" t="n">
+      <c r="E65" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F65" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2846,10 +2840,10 @@
       <c r="D66" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E66" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F66" s="13" t="n">
+      <c r="E66" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F66" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -2872,10 +2866,10 @@
       <c r="D67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="12" t="n">
+      <c r="E67" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F67" s="13" t="n">
+      <c r="F67" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -2898,10 +2892,10 @@
       <c r="D68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E68" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F68" s="13" t="n">
+      <c r="E68" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F68" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -2924,10 +2918,10 @@
       <c r="D69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E69" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F69" s="13" t="n">
+      <c r="E69" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F69" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2950,10 +2944,10 @@
       <c r="D70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E70" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F70" s="13" t="n">
+      <c r="E70" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F70" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -2976,10 +2970,10 @@
       <c r="D71" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E71" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F71" s="13" t="n">
+      <c r="E71" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F71" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -3002,10 +2996,10 @@
       <c r="D72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E72" s="12" t="n">
+      <c r="E72" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F72" s="13" t="n">
+      <c r="F72" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -3028,10 +3022,10 @@
       <c r="D73" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E73" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F73" s="13" t="n">
+      <c r="E73" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F73" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -3054,10 +3048,10 @@
       <c r="D74" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E74" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F74" s="13" t="n">
+      <c r="E74" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F74" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3080,10 +3074,10 @@
       <c r="D75" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E75" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F75" s="13" t="n">
+      <c r="E75" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F75" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3106,10 +3100,10 @@
       <c r="D76" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E76" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F76" s="13" t="n">
+      <c r="E76" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F76" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -3132,10 +3126,10 @@
       <c r="D77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E77" s="12" t="n">
+      <c r="E77" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F77" s="13" t="n">
+      <c r="F77" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -3158,10 +3152,10 @@
       <c r="D78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E78" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F78" s="13" t="n">
+      <c r="E78" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F78" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -3184,10 +3178,10 @@
       <c r="D79" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E79" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F79" s="13" t="n">
+      <c r="E79" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F79" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3210,10 +3204,10 @@
       <c r="D80" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E80" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F80" s="13" t="n">
+      <c r="E80" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F80" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3236,10 +3230,10 @@
       <c r="D81" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E81" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F81" s="13" t="n">
+      <c r="E81" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F81" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -3262,10 +3256,10 @@
       <c r="D82" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E82" s="12" t="n">
+      <c r="E82" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F82" s="13" t="n">
+      <c r="F82" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -3288,10 +3282,10 @@
       <c r="D83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E83" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F83" s="13" t="n">
+      <c r="E83" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F83" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -3314,10 +3308,10 @@
       <c r="D84" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E84" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F84" s="13" t="n">
+      <c r="E84" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F84" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3340,10 +3334,10 @@
       <c r="D85" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E85" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F85" s="13" t="n">
+      <c r="E85" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F85" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3366,10 +3360,10 @@
       <c r="D86" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E86" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F86" s="13" t="n">
+      <c r="E86" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F86" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -3392,10 +3386,10 @@
       <c r="D87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E87" s="12" t="n">
+      <c r="E87" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F87" s="13" t="n">
+      <c r="F87" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -3418,10 +3412,10 @@
       <c r="D88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E88" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F88" s="13" t="n">
+      <c r="E88" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F88" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -3444,10 +3438,10 @@
       <c r="D89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E89" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F89" s="13" t="n">
+      <c r="E89" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F89" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3470,10 +3464,10 @@
       <c r="D90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E90" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F90" s="13" t="n">
+      <c r="E90" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F90" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3496,10 +3490,10 @@
       <c r="D91" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E91" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F91" s="13" t="n">
+      <c r="E91" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F91" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -3522,10 +3516,10 @@
       <c r="D92" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E92" s="12" t="n">
+      <c r="E92" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F92" s="13" t="n">
+      <c r="F92" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -3548,10 +3542,10 @@
       <c r="D93" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E93" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F93" s="13" t="n">
+      <c r="E93" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F93" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -3574,10 +3568,10 @@
       <c r="D94" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E94" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F94" s="13" t="n">
+      <c r="E94" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F94" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3600,10 +3594,10 @@
       <c r="D95" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E95" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F95" s="13" t="n">
+      <c r="E95" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F95" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3626,10 +3620,10 @@
       <c r="D96" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E96" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F96" s="13" t="n">
+      <c r="E96" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F96" s="11" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -3652,10 +3646,10 @@
       <c r="D97" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E97" s="12" t="n">
+      <c r="E97" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F97" s="13" t="n">
+      <c r="F97" s="11" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -3678,10 +3672,10 @@
       <c r="D98" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E98" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F98" s="13" t="n">
+      <c r="E98" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F98" s="11" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -3704,10 +3698,10 @@
       <c r="D99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E99" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F99" s="13" t="n">
+      <c r="E99" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F99" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3730,10 +3724,660 @@
       <c r="D100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E100" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F100" s="13" t="n">
+      <c r="E100" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F100" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F101" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F102" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F103" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F104" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F105" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E106" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F106" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F107" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F108" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F109" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F110" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E111" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F111" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F112" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F113" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F114" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F115" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E116" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F116" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F117" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F118" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F119" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F120" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E121" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F121" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F122" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C123" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F123" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F124" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F125" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3766,37 +4410,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Cliente</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Nome do produto</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Tamanho</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Sexo</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Quantidade</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Valor unitario venda</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -3826,10 +4470,10 @@
       <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="n">
+      <c r="F2" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="11" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -3857,10 +4501,10 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3888,10 +4532,10 @@
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="11" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -3919,10 +4563,10 @@
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="11" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -3952,22 +4596,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Nome do produto</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Tamanho</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Quantidade</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Valor unitario compra</t>
         </is>
@@ -3985,9 +4629,9 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2682</v>
-      </c>
-      <c r="D2" s="12" t="n">
+        <v>3172</v>
+      </c>
+      <c r="D2" s="10" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4003,9 +4647,9 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" s="10" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4021,9 +4665,9 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4038,7 +4682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4056,37 +4700,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Cliente</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Nome do produto</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Parcela</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Valor parcela</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Valor total</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Valor total pendente</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Data vencimento</t>
         </is>
@@ -4106,16 +4750,16 @@
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="10" t="n">
         <v>12.5</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="F2" s="12" t="n">
+      <c r="F2" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="11" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -4133,16 +4777,16 @@
       <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="10" t="n">
         <v>12.5</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="10" t="n">
         <v>37.5</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="11" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -4160,16 +4804,16 @@
       <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="10" t="n">
         <v>12.5</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="11" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -4187,16 +4831,556 @@
       <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="10" t="n">
         <v>12.5</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="10" t="n">
         <v>12.5</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G11" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G12" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G24" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G25" s="11" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -4211,7 +5395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4228,37 +5412,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Participante</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Nome do produto</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Parcela</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Valor parcela</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Valor total</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Valor total pendente</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Data vencimento</t>
         </is>
@@ -4278,16 +5462,16 @@
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="10" t="n">
         <v>7.75</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" s="13" t="n">
+      <c r="E2" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" s="11" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -4305,16 +5489,16 @@
       <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="10" t="n">
         <v>7.75</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F3" s="12" t="n">
+      <c r="E3" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" s="10" t="n">
         <v>23.25</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="11" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -4332,16 +5516,16 @@
       <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="10" t="n">
         <v>7.75</v>
       </c>
-      <c r="E4" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F4" s="12" t="n">
+      <c r="E4" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" s="10" t="n">
         <v>15.5</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="11" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -4359,16 +5543,556 @@
       <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="10" t="n">
         <v>7.75</v>
       </c>
-      <c r="E5" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="F5" s="12" t="n">
+      <c r="E5" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" s="10" t="n">
         <v>7.75</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G11" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G12" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G24" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G25" s="11" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -4398,22 +6122,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Cpf</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Telefone</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Cidade</t>
         </is>

--- a/dados/Controle.xlsx
+++ b/dados/Controle.xlsx
@@ -1134,7 +1134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,6 +1962,396 @@
         <v>46047.54166666666</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" s="13" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F34" s="13" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="F38" s="13" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F40" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F44" s="13" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F46" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1973,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2396,6 +2786,378 @@
         <v>50</v>
       </c>
       <c r="G13" s="13" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" s="13" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="13" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G25" s="13" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -2458,7 +3220,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>4442</v>
+        <v>5128</v>
       </c>
       <c r="D2" s="12" t="n">
         <v>31</v>
@@ -2476,7 +3238,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>30</v>
@@ -2494,7 +3256,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12" t="n">
         <v>31</v>
@@ -2511,7 +3273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4617,6 +5379,330 @@
         <v>46167.54166666666</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E78" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F78" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G78" s="13" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E79" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F79" s="12" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G79" s="13" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E80" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F80" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="G80" s="13" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E81" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F81" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G81" s="13" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E82" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F82" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G82" s="13" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E83" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F83" s="12" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G83" s="13" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E84" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F84" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="G84" s="13" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E85" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G85" s="13" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E86" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F86" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G86" s="13" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E87" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F87" s="12" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G87" s="13" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E88" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F88" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="G88" s="13" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E89" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F89" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G89" s="13" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4628,7 +5714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6622,6 +7708,330 @@
         <v>7.75</v>
       </c>
       <c r="G73" s="13" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E74" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F74" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G74" s="13" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E75" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F75" s="12" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G75" s="13" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E76" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F76" s="12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G76" s="13" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E77" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F77" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G77" s="13" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E78" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F78" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G78" s="13" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E79" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F79" s="12" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G79" s="13" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E80" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F80" s="12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G80" s="13" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E81" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F81" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G81" s="13" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E82" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F82" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="G82" s="13" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E83" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F83" s="12" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G83" s="13" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E84" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F84" s="12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G84" s="13" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E85" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F85" s="12" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G85" s="13" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>

--- a/dados/Controle.xlsx
+++ b/dados/Controle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9024" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Caixa" sheetId="1" state="visible" r:id="rId1"/>
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,17 +1048,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Venda</t>
+          <t>Compra</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Fornecedor A</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1095,6 +1095,59 @@
         <v>50</v>
       </c>
       <c r="M11" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Venda</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>A vista</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="M12" s="11" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -1109,7 +1162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1547,6 +1600,2762 @@
         <v>46047.54166666666</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F25" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F26" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F28" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F31" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F34" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F35" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F36" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F37" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F38" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F39" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F40" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F41" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F42" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F43" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F44" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F45" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F46" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F47" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F48" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F49" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F50" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E51" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F51" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F52" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F53" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F54" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F55" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F56" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E57" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F57" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F58" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F59" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F60" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F61" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F62" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F63" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F64" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F65" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F66" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F67" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F68" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E69" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F69" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F70" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F71" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F72" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F73" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F74" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E75" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F75" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F76" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F77" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F78" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F79" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F80" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E81" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F81" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F82" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F83" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F84" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F85" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F86" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E87" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F87" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F88" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F89" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F90" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F91" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F92" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E93" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F93" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F94" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F95" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F96" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F97" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F98" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E99" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F99" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F100" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F101" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F102" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F103" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F104" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E105" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F105" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F106" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F107" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F108" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F109" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F110" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E111" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F111" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F112" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F113" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F114" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F115" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F116" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E117" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F117" s="11" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F118" s="11" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F119" s="11" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F120" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F121" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F122" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1558,7 +4367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,6 +4793,2238 @@
         <v>46047.58333333334</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G24" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G25" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G28" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G31" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G36" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G37" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G38" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G39" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G40" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G41" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G42" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G43" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G45" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G46" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G47" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G48" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G49" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G50" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G51" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G52" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G53" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G54" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G55" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G56" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G57" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G58" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G59" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G60" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G61" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G62" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G63" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G64" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G65" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G66" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G67" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G68" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G69" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G70" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G71" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G72" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G73" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G74" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G75" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G76" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G77" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G78" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G79" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G80" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G81" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G82" s="11" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G83" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G84" s="11" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G85" s="11" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1995,7 +7036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,7 +7084,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>5520</v>
+        <v>7284</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>31</v>
@@ -2061,7 +7102,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D3" s="10" t="n">
         <v>30</v>
@@ -2079,9 +7120,27 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D4" s="10" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="n">
         <v>31</v>
       </c>
     </row>
@@ -2096,7 +7155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2474,6 +7533,1950 @@
         <v>46167.54166666666</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G24" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G25" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G28" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E30" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E31" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G31" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E32" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E34" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E35" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E36" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G36" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G37" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G38" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G39" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G40" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G41" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E42" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G42" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G43" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E44" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E45" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G45" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E46" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E47" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G47" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E48" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G48" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E49" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G49" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E50" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E51" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G51" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E52" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G52" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E53" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G53" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E54" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G54" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E55" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G55" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E56" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G56" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E57" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G57" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E58" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G58" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E59" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G59" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E60" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G60" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E61" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G61" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E62" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G62" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E63" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G63" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E64" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G64" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E65" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G65" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E66" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G66" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E67" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G67" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E68" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G68" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E69" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G69" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E70" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F70" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G70" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E71" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G71" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E72" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G72" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E73" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G73" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E74" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G74" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E75" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G75" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E76" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G76" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E77" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G77" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E78" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G78" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E79" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G79" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E80" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F80" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G80" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E81" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G81" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E82" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G82" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E83" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G83" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E84" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F84" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G84" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E85" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G85" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2485,7 +9488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2859,6 +9862,1950 @@
         <v>7.75</v>
       </c>
       <c r="G13" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G24" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G25" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G28" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E30" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G30" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E31" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G31" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E32" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E34" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E35" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E36" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G36" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G37" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G38" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G39" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G40" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G41" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E42" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G42" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G43" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E44" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E45" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G45" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E46" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G46" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E47" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G47" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E48" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G48" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E49" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G49" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E50" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G50" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E51" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G51" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E52" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G52" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E53" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G53" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E54" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G54" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E55" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G55" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E56" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G56" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E57" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G57" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E58" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G58" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E59" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G59" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E60" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G60" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E61" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G61" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E62" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G62" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E63" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G63" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E64" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G64" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E65" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G65" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E66" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G66" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E67" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G67" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E68" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G68" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E69" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G69" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E70" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F70" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G70" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E71" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G71" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E72" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G72" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E73" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G73" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E74" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G74" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E75" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G75" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E76" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G76" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E77" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G77" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E78" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G78" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E79" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G79" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E80" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F80" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G80" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E81" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G81" s="11" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E82" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G82" s="11" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E83" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G83" s="11" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E84" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F84" s="10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G84" s="11" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E85" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G85" s="11" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>

--- a/dados/Controle.xlsx
+++ b/dados/Controle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Caixa" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,12 +21,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-\R\$* #,##0.00_-;\-\R\$* #,##0.00_-;_-\R\$* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="167" formatCode="_-R$* #,##0.00_-;-R$* #,##0.00_-;_-R$* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="_-R$* #,##0.00_-;-R$* #,##0.00_-;_-R$* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy hh:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -86,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -103,18 +102,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -599,7 +596,7 @@
       <c r="F2" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -610,16 +607,16 @@
       <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L2" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M2" s="11" t="n">
+      <c r="J2" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" s="9" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -652,7 +649,7 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="G3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="inlineStr">
@@ -663,16 +660,16 @@
       <c r="I3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="K3" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L3" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M3" s="11" t="n">
+      <c r="K3" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" s="9" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -705,7 +702,7 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="inlineStr">
@@ -716,16 +713,16 @@
       <c r="I4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="K4" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L4" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M4" s="11" t="n">
+      <c r="J4" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M4" s="9" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -756,7 +753,7 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -767,16 +764,16 @@
       <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="K5" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L5" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M5" s="11" t="n">
+      <c r="J5" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M5" s="9" t="n">
         <v>46047.45833333334</v>
       </c>
     </row>
@@ -809,7 +806,7 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="inlineStr">
@@ -820,16 +817,16 @@
       <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="K6" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L6" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M6" s="11" t="n">
+      <c r="J6" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M6" s="9" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -862,7 +859,7 @@
       <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="inlineStr">
@@ -873,16 +870,16 @@
       <c r="I7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="K7" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L7" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M7" s="11" t="n">
+      <c r="J7" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M7" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -915,7 +912,7 @@
       <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="inlineStr">
@@ -926,16 +923,16 @@
       <c r="I8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="K8" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L8" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M8" s="11" t="n">
+      <c r="J8" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M8" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -968,7 +965,7 @@
       <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="inlineStr">
@@ -979,16 +976,16 @@
       <c r="I9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="K9" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L9" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M9" s="11" t="n">
+      <c r="J9" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M9" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1021,7 +1018,7 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="inlineStr">
@@ -1032,16 +1029,16 @@
       <c r="I10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="K10" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L10" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M10" s="11" t="n">
+      <c r="J10" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M10" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1074,7 +1071,7 @@
       <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="inlineStr">
@@ -1085,16 +1082,16 @@
       <c r="I11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="K11" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L11" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M11" s="11" t="n">
+      <c r="J11" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M11" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1127,7 +1124,7 @@
       <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="1" t="inlineStr">
@@ -1138,16 +1135,16 @@
       <c r="I12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="K12" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="L12" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="M12" s="11" t="n">
+      <c r="J12" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M12" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -1162,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,10 +1226,10 @@
       <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" s="11" t="n">
+      <c r="E2" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" s="9" t="n">
         <v>45682.54166666666</v>
       </c>
     </row>
@@ -1255,10 +1252,10 @@
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="9" t="n">
         <v>46047.375</v>
       </c>
     </row>
@@ -1281,10 +1278,10 @@
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F4" s="11" t="n">
+      <c r="E4" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="n">
         <v>46047.41666666666</v>
       </c>
     </row>
@@ -1307,10 +1304,10 @@
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F5" s="11" t="n">
+      <c r="E5" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1333,17 +1330,17 @@
       <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F6" s="11" t="n">
+      <c r="E6" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -1357,24 +1354,24 @@
         </is>
       </c>
       <c r="D7" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F7" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -1383,19 +1380,19 @@
         </is>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" s="11" t="n">
-        <v>46047.375</v>
+        <v>100</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1405,43 +1402,43 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F9" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E9" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F10" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="E10" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="11">
@@ -1463,10 +1460,10 @@
       <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="n">
+      <c r="E11" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F11" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1487,24 +1484,24 @@
         </is>
       </c>
       <c r="D12" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F12" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1515,48 +1512,48 @@
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F13" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E13" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F14" s="11" t="n">
-        <v>46047.41666666666</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -1567,37 +1564,37 @@
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F15" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="E15" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F16" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="E16" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="17">
@@ -1617,24 +1614,24 @@
         </is>
       </c>
       <c r="D17" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F17" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -1645,37 +1642,37 @@
       <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F18" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E18" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F19" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E19" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="20">
@@ -1695,24 +1692,24 @@
         </is>
       </c>
       <c r="D20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F20" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -1723,48 +1720,48 @@
       <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F21" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="E21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D22" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F22" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -1775,43 +1772,43 @@
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F23" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E23" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F24" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E24" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1827,10 +1824,10 @@
       <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F25" s="11" t="n">
+      <c r="E25" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F25" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -1851,24 +1848,24 @@
         </is>
       </c>
       <c r="D26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F26" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -1877,19 +1874,19 @@
         </is>
       </c>
       <c r="D27" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F27" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1899,43 +1896,43 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F28" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E28" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F29" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E29" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="30">
@@ -1957,17 +1954,17 @@
       <c r="D30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F30" s="11" t="n">
+      <c r="E30" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F30" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1983,17 +1980,17 @@
       <c r="D31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F31" s="11" t="n">
+      <c r="E31" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F31" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -2007,24 +2004,24 @@
         </is>
       </c>
       <c r="D32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F32" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
@@ -2033,19 +2030,19 @@
         </is>
       </c>
       <c r="D33" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E33" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F33" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -2055,43 +2052,43 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F34" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E34" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F35" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E35" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="36">
@@ -2113,17 +2110,17 @@
       <c r="D36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E36" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F36" s="11" t="n">
+      <c r="E36" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F36" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -2139,17 +2136,17 @@
       <c r="D37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F37" s="11" t="n">
+      <c r="E37" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F37" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -2163,24 +2160,24 @@
         </is>
       </c>
       <c r="D38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F38" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
@@ -2189,19 +2186,19 @@
         </is>
       </c>
       <c r="D39" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E39" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F39" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -2211,43 +2208,43 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F40" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E40" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F41" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E41" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="42">
@@ -2269,17 +2266,17 @@
       <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F42" s="11" t="n">
+      <c r="E42" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F42" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -2295,17 +2292,17 @@
       <c r="D43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E43" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F43" s="11" t="n">
+      <c r="E43" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F43" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -2319,24 +2316,24 @@
         </is>
       </c>
       <c r="D44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F44" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
@@ -2345,19 +2342,19 @@
         </is>
       </c>
       <c r="D45" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E45" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F45" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -2367,43 +2364,43 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F46" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E46" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E47" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F47" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E47" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="48">
@@ -2425,17 +2422,17 @@
       <c r="D48" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F48" s="11" t="n">
+      <c r="E48" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F48" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
@@ -2451,17 +2448,17 @@
       <c r="D49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E49" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F49" s="11" t="n">
+      <c r="E49" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F49" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -2475,24 +2472,24 @@
         </is>
       </c>
       <c r="D50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F50" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
@@ -2501,19 +2498,19 @@
         </is>
       </c>
       <c r="D51" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E51" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F51" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -2523,43 +2520,43 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E52" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F52" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E52" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F53" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E53" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="54">
@@ -2581,17 +2578,17 @@
       <c r="D54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E54" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F54" s="11" t="n">
+      <c r="E54" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F54" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
@@ -2607,17 +2604,17 @@
       <c r="D55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E55" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F55" s="11" t="n">
+      <c r="E55" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F55" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -2631,24 +2628,24 @@
         </is>
       </c>
       <c r="D56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F56" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
@@ -2657,19 +2654,19 @@
         </is>
       </c>
       <c r="D57" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E57" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F57" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -2679,43 +2676,43 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E58" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F58" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E58" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E59" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F59" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E59" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="60">
@@ -2737,17 +2734,17 @@
       <c r="D60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F60" s="11" t="n">
+      <c r="E60" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F60" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
@@ -2763,17 +2760,17 @@
       <c r="D61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E61" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F61" s="11" t="n">
+      <c r="E61" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F61" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -2787,24 +2784,24 @@
         </is>
       </c>
       <c r="D62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F62" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
@@ -2813,19 +2810,19 @@
         </is>
       </c>
       <c r="D63" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E63" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F63" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
@@ -2835,43 +2832,43 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D64" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E64" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F64" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E64" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E65" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F65" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E65" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="66">
@@ -2893,17 +2890,17 @@
       <c r="D66" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E66" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F66" s="11" t="n">
+      <c r="E66" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F66" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
@@ -2919,17 +2916,17 @@
       <c r="D67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F67" s="11" t="n">
+      <c r="E67" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F67" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
@@ -2943,24 +2940,24 @@
         </is>
       </c>
       <c r="D68" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F68" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E68" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F68" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C69" s="1" t="inlineStr">
@@ -2969,19 +2966,19 @@
         </is>
       </c>
       <c r="D69" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E69" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F69" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E69" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F69" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -2991,43 +2988,43 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E70" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F70" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E70" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F70" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E71" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F71" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E71" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F71" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="72">
@@ -3049,17 +3046,17 @@
       <c r="D72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E72" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F72" s="11" t="n">
+      <c r="E72" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F72" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
@@ -3075,17 +3072,17 @@
       <c r="D73" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E73" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F73" s="11" t="n">
+      <c r="E73" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F73" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -3099,24 +3096,24 @@
         </is>
       </c>
       <c r="D74" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F74" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E74" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F74" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C75" s="1" t="inlineStr">
@@ -3125,19 +3122,19 @@
         </is>
       </c>
       <c r="D75" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E75" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F75" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F75" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
@@ -3147,43 +3144,43 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D76" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E76" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F76" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E76" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F76" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E77" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F77" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E77" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F77" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="78">
@@ -3205,17 +3202,17 @@
       <c r="D78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E78" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F78" s="11" t="n">
+      <c r="E78" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F78" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr">
@@ -3231,17 +3228,17 @@
       <c r="D79" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E79" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F79" s="11" t="n">
+      <c r="E79" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F79" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
@@ -3255,24 +3252,24 @@
         </is>
       </c>
       <c r="D80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F80" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E80" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F80" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C81" s="1" t="inlineStr">
@@ -3281,19 +3278,19 @@
         </is>
       </c>
       <c r="D81" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E81" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F81" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E81" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F81" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
@@ -3303,43 +3300,43 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D82" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E82" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F82" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E82" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F82" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E83" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F83" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E83" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F83" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="84">
@@ -3361,17 +3358,17 @@
       <c r="D84" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E84" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F84" s="11" t="n">
+      <c r="E84" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F84" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
@@ -3387,17 +3384,17 @@
       <c r="D85" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E85" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F85" s="11" t="n">
+      <c r="E85" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F85" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
@@ -3411,24 +3408,24 @@
         </is>
       </c>
       <c r="D86" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F86" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E86" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F86" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C87" s="1" t="inlineStr">
@@ -3437,19 +3434,19 @@
         </is>
       </c>
       <c r="D87" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E87" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F87" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E87" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F87" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr">
@@ -3459,43 +3456,43 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E88" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F88" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E88" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F88" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E89" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F89" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E89" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F89" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="90">
@@ -3517,17 +3514,17 @@
       <c r="D90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E90" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F90" s="11" t="n">
+      <c r="E90" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F90" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr">
@@ -3543,17 +3540,17 @@
       <c r="D91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E91" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F91" s="11" t="n">
+      <c r="E91" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F91" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
@@ -3567,24 +3564,24 @@
         </is>
       </c>
       <c r="D92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F92" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E92" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F92" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B93" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C93" s="1" t="inlineStr">
@@ -3593,19 +3590,19 @@
         </is>
       </c>
       <c r="D93" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E93" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F93" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E93" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F93" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
@@ -3615,43 +3612,43 @@
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D94" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E94" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F94" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E94" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F94" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D95" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E95" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F95" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E95" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F95" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="96">
@@ -3673,17 +3670,17 @@
       <c r="D96" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E96" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F96" s="11" t="n">
+      <c r="E96" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F96" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B97" s="1" t="inlineStr">
@@ -3699,17 +3696,17 @@
       <c r="D97" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E97" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F97" s="11" t="n">
+      <c r="E97" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F97" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
@@ -3723,24 +3720,24 @@
         </is>
       </c>
       <c r="D98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F98" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E98" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F98" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B99" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C99" s="1" t="inlineStr">
@@ -3749,19 +3746,19 @@
         </is>
       </c>
       <c r="D99" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E99" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F99" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E99" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F99" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B100" s="1" t="inlineStr">
@@ -3771,43 +3768,43 @@
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E100" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F100" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E100" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F100" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D101" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E101" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F101" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E101" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F101" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="102">
@@ -3829,17 +3826,17 @@
       <c r="D102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E102" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F102" s="11" t="n">
+      <c r="E102" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F102" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B103" s="1" t="inlineStr">
@@ -3855,17 +3852,17 @@
       <c r="D103" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E103" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F103" s="11" t="n">
+      <c r="E103" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F103" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Compra C</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
@@ -3879,24 +3876,24 @@
         </is>
       </c>
       <c r="D104" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E104" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F104" s="11" t="n">
-        <v>46047.54166666666</v>
+        <v>100</v>
+      </c>
+      <c r="E104" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F104" s="9" t="n">
+        <v>45682.54166666666</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra A</t>
         </is>
       </c>
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>GG</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C105" s="1" t="inlineStr">
@@ -3905,19 +3902,19 @@
         </is>
       </c>
       <c r="D105" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E105" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F105" s="11" t="n">
-        <v>45682.54166666666</v>
+        <v>1</v>
+      </c>
+      <c r="E105" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F105" s="9" t="n">
+        <v>46047.375</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Compra A</t>
+          <t>Compra B</t>
         </is>
       </c>
       <c r="B106" s="1" t="inlineStr">
@@ -3927,43 +3924,43 @@
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D106" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E106" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F106" s="11" t="n">
-        <v>46047.375</v>
+      <c r="E106" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F106" s="9" t="n">
+        <v>46047.41666666666</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Compra B</t>
+          <t xml:space="preserve">CAM VERM POLO </t>
         </is>
       </c>
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>GG</t>
         </is>
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D107" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E107" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F107" s="11" t="n">
-        <v>46047.41666666666</v>
+      <c r="E107" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F107" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="108">
@@ -3985,17 +3982,17 @@
       <c r="D108" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E108" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F108" s="11" t="n">
+      <c r="E108" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F108" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
+          <t>Compra C</t>
         </is>
       </c>
       <c r="B109" s="1" t="inlineStr">
@@ -4011,348 +4008,10 @@
       <c r="D109" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E109" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F109" s="11" t="n">
-        <v>46047.54166666666</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>Compra C</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-      <c r="C110" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D110" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F110" s="11" t="n">
-        <v>46047.54166666666</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-      <c r="C111" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D111" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E111" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F111" s="11" t="n">
-        <v>45682.54166666666</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>Compra A</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C112" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D112" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F112" s="11" t="n">
-        <v>46047.375</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>Compra B</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C113" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D113" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F113" s="11" t="n">
-        <v>46047.41666666666</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-      <c r="C114" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D114" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F114" s="11" t="n">
-        <v>46047.54166666666</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-      <c r="C115" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D115" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F115" s="11" t="n">
-        <v>46047.54166666666</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>Compra C</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-      <c r="C116" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D116" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F116" s="11" t="n">
-        <v>46047.54166666666</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-      <c r="C117" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D117" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="E117" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F117" s="11" t="n">
-        <v>45682.54166666666</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>Compra A</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C118" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D118" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F118" s="11" t="n">
-        <v>46047.375</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>Compra B</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C119" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D119" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F119" s="11" t="n">
-        <v>46047.41666666666</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-      <c r="C120" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D120" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F120" s="11" t="n">
-        <v>46047.54166666666</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-      <c r="C121" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D121" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E121" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F121" s="11" t="n">
-        <v>46047.54166666666</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>Compra C</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-      <c r="C122" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D122" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F122" s="11" t="n">
+      <c r="E109" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F109" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -4367,7 +4026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,10 +4104,10 @@
       <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" s="11" t="n">
+      <c r="F2" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" s="9" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -4476,10 +4135,10 @@
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" s="11" t="n">
+      <c r="F3" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G3" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -4507,10 +4166,10 @@
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" s="11" t="n">
+      <c r="F4" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -4538,10 +4197,10 @@
       <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" s="11" t="n">
+      <c r="F5" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -4569,10 +4228,10 @@
       <c r="E6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" s="11" t="n">
+      <c r="F6" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -4600,10 +4259,10 @@
       <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" s="11" t="n">
+      <c r="F7" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -4631,10 +4290,10 @@
       <c r="E8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" s="11" t="n">
+      <c r="F8" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -4662,10 +4321,10 @@
       <c r="E9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" s="11" t="n">
+      <c r="F9" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -4693,10 +4352,10 @@
       <c r="E10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G10" s="11" t="n">
+      <c r="F10" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -4724,10 +4383,10 @@
       <c r="E11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G11" s="11" t="n">
+      <c r="F11" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G11" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -4755,10 +4414,10 @@
       <c r="E12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G12" s="11" t="n">
+      <c r="F12" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -4786,10 +4445,10 @@
       <c r="E13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G13" s="11" t="n">
+      <c r="F13" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G13" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -4817,10 +4476,10 @@
       <c r="E14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G14" s="11" t="n">
+      <c r="F14" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G14" s="9" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -4848,10 +4507,10 @@
       <c r="E15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G15" s="11" t="n">
+      <c r="F15" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -4879,10 +4538,10 @@
       <c r="E16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G16" s="11" t="n">
+      <c r="F16" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G16" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -4910,10 +4569,10 @@
       <c r="E17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G17" s="11" t="n">
+      <c r="F17" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G17" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -4941,10 +4600,10 @@
       <c r="E18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G18" s="11" t="n">
+      <c r="F18" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" s="9" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -4972,10 +4631,10 @@
       <c r="E19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G19" s="11" t="n">
+      <c r="F19" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G19" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -5003,10 +4662,10 @@
       <c r="E20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G20" s="11" t="n">
+      <c r="F20" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G20" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -5034,10 +4693,10 @@
       <c r="E21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G21" s="11" t="n">
+      <c r="F21" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G21" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -5065,10 +4724,10 @@
       <c r="E22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" s="11" t="n">
+      <c r="F22" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G22" s="9" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -5096,10 +4755,10 @@
       <c r="E23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G23" s="11" t="n">
+      <c r="F23" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G23" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -5127,10 +4786,10 @@
       <c r="E24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G24" s="11" t="n">
+      <c r="F24" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G24" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -5158,10 +4817,10 @@
       <c r="E25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G25" s="11" t="n">
+      <c r="F25" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G25" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -5189,10 +4848,10 @@
       <c r="E26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G26" s="11" t="n">
+      <c r="F26" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G26" s="9" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -5220,10 +4879,10 @@
       <c r="E27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G27" s="11" t="n">
+      <c r="F27" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G27" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -5251,10 +4910,10 @@
       <c r="E28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F28" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G28" s="11" t="n">
+      <c r="F28" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G28" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -5282,28 +4941,26 @@
       <c r="E29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G29" s="11" t="n">
+      <c r="F29" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G29" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
@@ -5313,17 +4970,17 @@
       <c r="E30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G30" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F30" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -5338,17 +4995,17 @@
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G31" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F31" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>46047.5</v>
       </c>
     </row>
     <row r="32">
@@ -5375,10 +5032,10 @@
       <c r="E32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G32" s="11" t="n">
+      <c r="F32" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G32" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -5406,17 +5063,17 @@
       <c r="E33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G33" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F33" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -5431,17 +5088,17 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G34" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F34" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G34" s="9" t="n">
+        <v>46047.58333333334</v>
       </c>
     </row>
     <row r="35">
@@ -5452,33 +5109,31 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G35" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F35" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -5493,17 +5148,17 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F36" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G36" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F36" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G36" s="9" t="n">
+        <v>46047.5</v>
       </c>
     </row>
     <row r="37">
@@ -5530,17 +5185,17 @@
       <c r="E37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F37" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G37" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F37" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -5555,17 +5210,17 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F38" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G38" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F38" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G38" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="39">
@@ -5592,11 +5247,11 @@
       <c r="E39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G39" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F39" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G39" s="9" t="n">
+        <v>46047.58333333334</v>
       </c>
     </row>
     <row r="40">
@@ -5607,33 +5262,31 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F40" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G40" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F40" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G40" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -5648,23 +5301,23 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G41" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F41" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>46047.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -5679,17 +5332,17 @@
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F42" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G42" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F42" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G42" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="43">
@@ -5716,10 +5369,10 @@
       <c r="E43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F43" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G43" s="11" t="n">
+      <c r="F43" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G43" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -5747,11 +5400,11 @@
       <c r="E44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F44" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G44" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F44" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G44" s="9" t="n">
+        <v>46047.58333333334</v>
       </c>
     </row>
     <row r="45">
@@ -5762,27 +5415,25 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G45" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F45" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="46">
@@ -5809,10 +5460,10 @@
       <c r="E46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F46" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G46" s="11" t="n">
+      <c r="F46" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G46" s="9" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -5840,10 +5491,10 @@
       <c r="E47" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F47" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G47" s="11" t="n">
+      <c r="F47" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G47" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -5871,10 +5522,10 @@
       <c r="E48" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F48" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G48" s="11" t="n">
+      <c r="F48" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G48" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -5902,28 +5553,26 @@
       <c r="E49" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F49" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G49" s="11" t="n">
+      <c r="F49" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G49" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
@@ -5933,17 +5582,17 @@
       <c r="E50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F50" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G50" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F50" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G50" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
@@ -5958,17 +5607,17 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F51" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G51" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F51" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>46047.5</v>
       </c>
     </row>
     <row r="52">
@@ -5995,10 +5644,10 @@
       <c r="E52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F52" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G52" s="11" t="n">
+      <c r="F52" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G52" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -6026,17 +5675,17 @@
       <c r="E53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F53" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G53" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F53" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -6051,17 +5700,17 @@
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F54" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G54" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F54" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G54" s="9" t="n">
+        <v>46047.58333333334</v>
       </c>
     </row>
     <row r="55">
@@ -6072,33 +5721,31 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F55" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G55" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F55" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -6113,17 +5760,17 @@
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F56" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G56" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F56" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G56" s="9" t="n">
+        <v>46047.5</v>
       </c>
     </row>
     <row r="57">
@@ -6150,17 +5797,17 @@
       <c r="E57" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F57" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G57" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F57" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -6175,17 +5822,17 @@
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F58" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G58" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F58" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G58" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="59">
@@ -6212,11 +5859,11 @@
       <c r="E59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F59" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G59" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F59" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>46047.58333333334</v>
       </c>
     </row>
     <row r="60">
@@ -6227,33 +5874,31 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E60" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F60" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G60" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F60" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G60" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
@@ -6268,23 +5913,23 @@
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F61" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G61" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F61" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>46047.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -6299,17 +5944,17 @@
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F62" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G62" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F62" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G62" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="63">
@@ -6336,10 +5981,10 @@
       <c r="E63" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F63" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G63" s="11" t="n">
+      <c r="F63" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G63" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -6367,11 +6012,11 @@
       <c r="E64" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F64" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G64" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F64" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G64" s="9" t="n">
+        <v>46047.58333333334</v>
       </c>
     </row>
     <row r="65">
@@ -6382,27 +6027,25 @@
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F65" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G65" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F65" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G65" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="66">
@@ -6429,10 +6072,10 @@
       <c r="E66" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F66" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G66" s="11" t="n">
+      <c r="F66" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G66" s="9" t="n">
         <v>46047.5</v>
       </c>
     </row>
@@ -6460,10 +6103,10 @@
       <c r="E67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F67" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G67" s="11" t="n">
+      <c r="F67" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G67" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -6491,10 +6134,10 @@
       <c r="E68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F68" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G68" s="11" t="n">
+      <c r="F68" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G68" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -6522,28 +6165,26 @@
       <c r="E69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F69" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G69" s="11" t="n">
+      <c r="F69" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G69" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
@@ -6553,17 +6194,17 @@
       <c r="E70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F70" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G70" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F70" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G70" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
@@ -6578,17 +6219,17 @@
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E71" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F71" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G71" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F71" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>46047.5</v>
       </c>
     </row>
     <row r="72">
@@ -6615,10 +6256,10 @@
       <c r="E72" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F72" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G72" s="11" t="n">
+      <c r="F72" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G72" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -6646,17 +6287,17 @@
       <c r="E73" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F73" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G73" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F73" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -6671,17 +6312,17 @@
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E74" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F74" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G74" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F74" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G74" s="9" t="n">
+        <v>46047.58333333334</v>
       </c>
     </row>
     <row r="75">
@@ -6692,33 +6333,31 @@
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E75" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F75" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G75" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F75" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
@@ -6733,17 +6372,17 @@
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E76" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F76" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G76" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F76" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G76" s="9" t="n">
+        <v>46047.5</v>
       </c>
     </row>
     <row r="77">
@@ -6770,17 +6409,17 @@
       <c r="E77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F77" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G77" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F77" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
@@ -6795,17 +6434,17 @@
       </c>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E78" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F78" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G78" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F78" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G78" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="79">
@@ -6832,11 +6471,11 @@
       <c r="E79" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F79" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G79" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F79" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>46047.58333333334</v>
       </c>
     </row>
     <row r="80">
@@ -6847,33 +6486,31 @@
       </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E80" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F80" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G80" s="11" t="n">
-        <v>46047.54166666666</v>
+      <c r="F80" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G80" s="9" t="n">
+        <v>46047.45833333334</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
@@ -6888,23 +6525,23 @@
       </c>
       <c r="D81" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E81" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F81" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G81" s="11" t="n">
-        <v>46047.58333333334</v>
+      <c r="F81" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>46047.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
@@ -6919,17 +6556,17 @@
       </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E82" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F82" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G82" s="11" t="n">
-        <v>46047.5</v>
+      <c r="F82" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G82" s="9" t="n">
+        <v>46047.54166666666</v>
       </c>
     </row>
     <row r="83">
@@ -6956,10 +6593,10 @@
       <c r="E83" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F83" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G83" s="11" t="n">
+      <c r="F83" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G83" s="9" t="n">
         <v>46047.54166666666</v>
       </c>
     </row>
@@ -6987,41 +6624,10 @@
       <c r="E84" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F84" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G84" s="11" t="n">
-        <v>46047.54166666666</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C85" s="1" t="inlineStr">
-        <is>
-          <t>GG</t>
-        </is>
-      </c>
-      <c r="D85" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G85" s="11" t="n">
+      <c r="F84" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G84" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -7036,7 +6642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7084,9 +6690,9 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>7284</v>
-      </c>
-      <c r="D2" s="10" t="n">
+        <v>12166</v>
+      </c>
+      <c r="D2" s="8" t="n">
         <v>31</v>
       </c>
     </row>
@@ -7102,9 +6708,9 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" s="10" t="n">
+        <v>119</v>
+      </c>
+      <c r="D3" s="8" t="n">
         <v>30</v>
       </c>
     </row>
@@ -7120,9 +6726,9 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" s="10" t="n">
+        <v>119</v>
+      </c>
+      <c r="D4" s="8" t="n">
         <v>31</v>
       </c>
     </row>
@@ -7138,9 +6744,25 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="n">
         <v>31</v>
       </c>
     </row>
@@ -7155,7 +6777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7223,16 +6845,16 @@
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" s="11" t="n">
+      <c r="E2" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -7250,16 +6872,16 @@
       <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" s="10" t="n">
+      <c r="E3" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -7277,16 +6899,16 @@
       <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E4" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" s="10" t="n">
+      <c r="E4" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -7304,16 +6926,16 @@
       <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E5" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" s="10" t="n">
+      <c r="E5" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -7331,16 +6953,16 @@
       <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E6" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" s="11" t="n">
+      <c r="E6" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -7358,16 +6980,16 @@
       <c r="C7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E7" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" s="10" t="n">
+      <c r="E7" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -7385,16 +7007,16 @@
       <c r="C8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E8" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" s="10" t="n">
+      <c r="E8" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -7412,16 +7034,16 @@
       <c r="C9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E9" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10" t="n">
+      <c r="E9" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -7439,16 +7061,16 @@
       <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E10" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G10" s="11" t="n">
+      <c r="E10" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -7466,16 +7088,16 @@
       <c r="C11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E11" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" s="10" t="n">
+      <c r="E11" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -7493,16 +7115,16 @@
       <c r="C12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E12" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" s="10" t="n">
+      <c r="E12" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -7520,16 +7142,16 @@
       <c r="C13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E13" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" s="10" t="n">
+      <c r="E13" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -7547,16 +7169,16 @@
       <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E14" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F14" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G14" s="11" t="n">
+      <c r="E14" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -7574,16 +7196,16 @@
       <c r="C15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E15" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" s="10" t="n">
+      <c r="E15" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -7601,16 +7223,16 @@
       <c r="C16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E16" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F16" s="10" t="n">
+      <c r="E16" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -7628,16 +7250,16 @@
       <c r="C17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E17" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F17" s="10" t="n">
+      <c r="E17" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -7655,16 +7277,16 @@
       <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E18" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G18" s="11" t="n">
+      <c r="E18" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -7682,16 +7304,16 @@
       <c r="C19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E19" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F19" s="10" t="n">
+      <c r="E19" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F19" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -7709,16 +7331,16 @@
       <c r="C20" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E20" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F20" s="10" t="n">
+      <c r="E20" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -7736,16 +7358,16 @@
       <c r="C21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E21" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F21" s="10" t="n">
+      <c r="E21" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F21" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -7763,16 +7385,16 @@
       <c r="C22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E22" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" s="11" t="n">
+      <c r="E22" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -7790,16 +7412,16 @@
       <c r="C23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E23" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F23" s="10" t="n">
+      <c r="E23" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -7817,16 +7439,16 @@
       <c r="C24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E24" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F24" s="10" t="n">
+      <c r="E24" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -7844,16 +7466,16 @@
       <c r="C25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E25" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F25" s="10" t="n">
+      <c r="E25" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F25" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -7871,16 +7493,16 @@
       <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E26" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F26" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G26" s="11" t="n">
+      <c r="E26" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -7898,16 +7520,16 @@
       <c r="C27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E27" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F27" s="10" t="n">
+      <c r="E27" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -7925,16 +7547,16 @@
       <c r="C28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E28" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F28" s="10" t="n">
+      <c r="E28" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -7952,16 +7574,16 @@
       <c r="C29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E29" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F29" s="10" t="n">
+      <c r="E29" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -7979,16 +7601,16 @@
       <c r="C30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E30" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F30" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G30" s="11" t="n">
+      <c r="E30" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -8006,16 +7628,16 @@
       <c r="C31" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E31" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F31" s="10" t="n">
+      <c r="E31" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F31" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -8033,16 +7655,16 @@
       <c r="C32" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E32" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F32" s="10" t="n">
+      <c r="E32" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -8060,16 +7682,16 @@
       <c r="C33" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E33" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F33" s="10" t="n">
+      <c r="E33" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -8087,16 +7709,16 @@
       <c r="C34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E34" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G34" s="11" t="n">
+      <c r="E34" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -8114,16 +7736,16 @@
       <c r="C35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E35" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F35" s="10" t="n">
+      <c r="E35" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F35" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -8141,16 +7763,16 @@
       <c r="C36" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E36" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F36" s="10" t="n">
+      <c r="E36" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F36" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -8168,16 +7790,16 @@
       <c r="C37" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E37" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F37" s="10" t="n">
+      <c r="E37" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -8195,16 +7817,16 @@
       <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E38" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G38" s="11" t="n">
+      <c r="E38" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G38" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -8222,16 +7844,16 @@
       <c r="C39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E39" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F39" s="10" t="n">
+      <c r="E39" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F39" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G39" s="11" t="n">
+      <c r="G39" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -8249,16 +7871,16 @@
       <c r="C40" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D40" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E40" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F40" s="10" t="n">
+      <c r="E40" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F40" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -8276,16 +7898,16 @@
       <c r="C41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D41" s="10" t="n">
+      <c r="D41" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E41" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F41" s="10" t="n">
+      <c r="E41" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F41" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -8303,16 +7925,16 @@
       <c r="C42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D42" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E42" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G42" s="11" t="n">
+      <c r="E42" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G42" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -8330,16 +7952,16 @@
       <c r="C43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="10" t="n">
+      <c r="D43" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E43" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F43" s="10" t="n">
+      <c r="E43" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F43" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -8357,16 +7979,16 @@
       <c r="C44" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D44" s="10" t="n">
+      <c r="D44" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E44" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F44" s="10" t="n">
+      <c r="E44" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F44" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G44" s="11" t="n">
+      <c r="G44" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -8384,16 +8006,16 @@
       <c r="C45" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D45" s="10" t="n">
+      <c r="D45" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E45" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F45" s="10" t="n">
+      <c r="E45" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G45" s="11" t="n">
+      <c r="G45" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -8411,16 +8033,16 @@
       <c r="C46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D46" s="10" t="n">
+      <c r="D46" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E46" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F46" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G46" s="11" t="n">
+      <c r="E46" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -8438,16 +8060,16 @@
       <c r="C47" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="10" t="n">
+      <c r="D47" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E47" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F47" s="10" t="n">
+      <c r="E47" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F47" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G47" s="11" t="n">
+      <c r="G47" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -8465,16 +8087,16 @@
       <c r="C48" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D48" s="10" t="n">
+      <c r="D48" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E48" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F48" s="10" t="n">
+      <c r="E48" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F48" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G48" s="11" t="n">
+      <c r="G48" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -8492,16 +8114,16 @@
       <c r="C49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D49" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E49" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F49" s="10" t="n">
+      <c r="E49" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F49" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G49" s="11" t="n">
+      <c r="G49" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -8519,16 +8141,16 @@
       <c r="C50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E50" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F50" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G50" s="11" t="n">
+      <c r="E50" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F50" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -8546,16 +8168,16 @@
       <c r="C51" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="10" t="n">
+      <c r="D51" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E51" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F51" s="10" t="n">
+      <c r="E51" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F51" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G51" s="11" t="n">
+      <c r="G51" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -8573,16 +8195,16 @@
       <c r="C52" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D52" s="10" t="n">
+      <c r="D52" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E52" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F52" s="10" t="n">
+      <c r="E52" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G52" s="11" t="n">
+      <c r="G52" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -8600,16 +8222,16 @@
       <c r="C53" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D53" s="10" t="n">
+      <c r="D53" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E53" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F53" s="10" t="n">
+      <c r="E53" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F53" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G53" s="11" t="n">
+      <c r="G53" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -8627,16 +8249,16 @@
       <c r="C54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E54" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F54" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G54" s="11" t="n">
+      <c r="E54" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G54" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -8654,16 +8276,16 @@
       <c r="C55" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D55" s="10" t="n">
+      <c r="D55" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E55" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F55" s="10" t="n">
+      <c r="E55" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F55" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G55" s="11" t="n">
+      <c r="G55" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -8681,16 +8303,16 @@
       <c r="C56" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D56" s="10" t="n">
+      <c r="D56" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E56" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F56" s="10" t="n">
+      <c r="E56" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F56" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G56" s="11" t="n">
+      <c r="G56" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -8708,16 +8330,16 @@
       <c r="C57" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D57" s="10" t="n">
+      <c r="D57" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E57" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F57" s="10" t="n">
+      <c r="E57" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F57" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G57" s="11" t="n">
+      <c r="G57" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -8735,16 +8357,16 @@
       <c r="C58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E58" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F58" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G58" s="11" t="n">
+      <c r="E58" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F58" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G58" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -8762,16 +8384,16 @@
       <c r="C59" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D59" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E59" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F59" s="10" t="n">
+      <c r="E59" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F59" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G59" s="11" t="n">
+      <c r="G59" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -8789,16 +8411,16 @@
       <c r="C60" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D60" s="10" t="n">
+      <c r="D60" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E60" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F60" s="10" t="n">
+      <c r="E60" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F60" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G60" s="11" t="n">
+      <c r="G60" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -8816,16 +8438,16 @@
       <c r="C61" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D61" s="10" t="n">
+      <c r="D61" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E61" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F61" s="10" t="n">
+      <c r="E61" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F61" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G61" s="11" t="n">
+      <c r="G61" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -8843,16 +8465,16 @@
       <c r="C62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="10" t="n">
+      <c r="D62" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E62" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F62" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G62" s="11" t="n">
+      <c r="E62" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F62" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G62" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -8870,16 +8492,16 @@
       <c r="C63" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="10" t="n">
+      <c r="D63" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E63" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F63" s="10" t="n">
+      <c r="E63" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F63" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G63" s="11" t="n">
+      <c r="G63" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -8897,16 +8519,16 @@
       <c r="C64" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="D64" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E64" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F64" s="10" t="n">
+      <c r="E64" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F64" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G64" s="11" t="n">
+      <c r="G64" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -8924,16 +8546,16 @@
       <c r="C65" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D65" s="10" t="n">
+      <c r="D65" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E65" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F65" s="10" t="n">
+      <c r="E65" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F65" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G65" s="11" t="n">
+      <c r="G65" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -8951,16 +8573,16 @@
       <c r="C66" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D66" s="10" t="n">
+      <c r="D66" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E66" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F66" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G66" s="11" t="n">
+      <c r="E66" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F66" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G66" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -8978,16 +8600,16 @@
       <c r="C67" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D67" s="10" t="n">
+      <c r="D67" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E67" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F67" s="10" t="n">
+      <c r="E67" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F67" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G67" s="11" t="n">
+      <c r="G67" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -9005,16 +8627,16 @@
       <c r="C68" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D68" s="10" t="n">
+      <c r="D68" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E68" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F68" s="10" t="n">
+      <c r="E68" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F68" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G68" s="11" t="n">
+      <c r="G68" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -9032,16 +8654,16 @@
       <c r="C69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D69" s="10" t="n">
+      <c r="D69" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E69" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F69" s="10" t="n">
+      <c r="E69" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F69" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G69" s="11" t="n">
+      <c r="G69" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -9059,16 +8681,16 @@
       <c r="C70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D70" s="10" t="n">
+      <c r="D70" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E70" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F70" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G70" s="11" t="n">
+      <c r="E70" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F70" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G70" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -9086,16 +8708,16 @@
       <c r="C71" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D71" s="10" t="n">
+      <c r="D71" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E71" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F71" s="10" t="n">
+      <c r="E71" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F71" s="8" t="n">
         <v>37.5</v>
       </c>
-      <c r="G71" s="11" t="n">
+      <c r="G71" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -9113,16 +8735,16 @@
       <c r="C72" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D72" s="10" t="n">
+      <c r="D72" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E72" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F72" s="10" t="n">
+      <c r="E72" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F72" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G72" s="11" t="n">
+      <c r="G72" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -9140,340 +8762,16 @@
       <c r="C73" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D73" s="10" t="n">
+      <c r="D73" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="E73" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F73" s="10" t="n">
+      <c r="E73" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F73" s="8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G73" s="11" t="n">
-        <v>46167.54166666666</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E74" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F74" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G74" s="11" t="n">
-        <v>46078.54166666666</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E75" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F75" s="10" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="G75" s="11" t="n">
-        <v>46106.54166666666</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D76" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E76" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F76" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="G76" s="11" t="n">
-        <v>46137.54166666666</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D77" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E77" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F77" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G77" s="11" t="n">
-        <v>46167.54166666666</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E78" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G78" s="11" t="n">
-        <v>46078.54166666666</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D79" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E79" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F79" s="10" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="G79" s="11" t="n">
-        <v>46106.54166666666</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D80" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E80" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F80" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="G80" s="11" t="n">
-        <v>46137.54166666666</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D81" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E81" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F81" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G81" s="11" t="n">
-        <v>46167.54166666666</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E82" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F82" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="G82" s="11" t="n">
-        <v>46078.54166666666</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D83" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E83" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F83" s="10" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="G83" s="11" t="n">
-        <v>46106.54166666666</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D84" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E84" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F84" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="G84" s="11" t="n">
-        <v>46137.54166666666</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C85" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E85" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F85" s="10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G85" s="11" t="n">
+      <c r="G73" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -9488,7 +8786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9555,16 +8853,16 @@
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" s="11" t="n">
+      <c r="E2" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -9582,16 +8880,16 @@
       <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F3" s="10" t="n">
+      <c r="E3" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -9609,16 +8907,16 @@
       <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E4" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F4" s="10" t="n">
+      <c r="E4" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -9636,16 +8934,16 @@
       <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E5" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F5" s="10" t="n">
+      <c r="E5" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -9663,16 +8961,16 @@
       <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E6" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G6" s="11" t="n">
+      <c r="E6" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -9690,16 +8988,16 @@
       <c r="C7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E7" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F7" s="10" t="n">
+      <c r="E7" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -9717,16 +9015,16 @@
       <c r="C8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E8" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F8" s="10" t="n">
+      <c r="E8" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -9744,16 +9042,16 @@
       <c r="C9" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E9" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F9" s="10" t="n">
+      <c r="E9" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -9771,16 +9069,16 @@
       <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E10" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G10" s="11" t="n">
+      <c r="E10" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -9798,16 +9096,16 @@
       <c r="C11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E11" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F11" s="10" t="n">
+      <c r="E11" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F11" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -9825,16 +9123,16 @@
       <c r="C12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E12" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F12" s="10" t="n">
+      <c r="E12" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F12" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -9852,16 +9150,16 @@
       <c r="C13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E13" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F13" s="10" t="n">
+      <c r="E13" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G13" s="11" t="n">
+      <c r="G13" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -9879,16 +9177,16 @@
       <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E14" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F14" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G14" s="11" t="n">
+      <c r="E14" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G14" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -9906,16 +9204,16 @@
       <c r="C15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E15" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10" t="n">
+      <c r="E15" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -9933,16 +9231,16 @@
       <c r="C16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E16" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F16" s="10" t="n">
+      <c r="E16" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -9960,16 +9258,16 @@
       <c r="C17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E17" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F17" s="10" t="n">
+      <c r="E17" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -9987,16 +9285,16 @@
       <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E18" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G18" s="11" t="n">
+      <c r="E18" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10014,16 +9312,16 @@
       <c r="C19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E19" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F19" s="10" t="n">
+      <c r="E19" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F19" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10041,16 +9339,16 @@
       <c r="C20" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E20" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F20" s="10" t="n">
+      <c r="E20" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G20" s="11" t="n">
+      <c r="G20" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10068,16 +9366,16 @@
       <c r="C21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E21" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F21" s="10" t="n">
+      <c r="E21" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10095,16 +9393,16 @@
       <c r="C22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E22" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G22" s="11" t="n">
+      <c r="E22" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G22" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10122,16 +9420,16 @@
       <c r="C23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E23" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F23" s="10" t="n">
+      <c r="E23" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F23" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10149,16 +9447,16 @@
       <c r="C24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E24" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F24" s="10" t="n">
+      <c r="E24" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G24" s="11" t="n">
+      <c r="G24" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10176,16 +9474,16 @@
       <c r="C25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E25" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F25" s="10" t="n">
+      <c r="E25" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F25" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10203,16 +9501,16 @@
       <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E26" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F26" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G26" s="11" t="n">
+      <c r="E26" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G26" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10230,16 +9528,16 @@
       <c r="C27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E27" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F27" s="10" t="n">
+      <c r="E27" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F27" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10257,16 +9555,16 @@
       <c r="C28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E28" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F28" s="10" t="n">
+      <c r="E28" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F28" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G28" s="11" t="n">
+      <c r="G28" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10284,16 +9582,16 @@
       <c r="C29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E29" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F29" s="10" t="n">
+      <c r="E29" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F29" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10311,16 +9609,16 @@
       <c r="C30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E30" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F30" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G30" s="11" t="n">
+      <c r="E30" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G30" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10338,16 +9636,16 @@
       <c r="C31" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E31" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F31" s="10" t="n">
+      <c r="E31" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F31" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10365,16 +9663,16 @@
       <c r="C32" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E32" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F32" s="10" t="n">
+      <c r="E32" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G32" s="11" t="n">
+      <c r="G32" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10392,16 +9690,16 @@
       <c r="C33" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E33" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F33" s="10" t="n">
+      <c r="E33" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G33" s="11" t="n">
+      <c r="G33" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10419,16 +9717,16 @@
       <c r="C34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E34" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G34" s="11" t="n">
+      <c r="E34" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G34" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10446,16 +9744,16 @@
       <c r="C35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E35" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F35" s="10" t="n">
+      <c r="E35" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F35" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10473,16 +9771,16 @@
       <c r="C36" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E36" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F36" s="10" t="n">
+      <c r="E36" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F36" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10500,16 +9798,16 @@
       <c r="C37" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E37" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F37" s="10" t="n">
+      <c r="E37" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F37" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G37" s="11" t="n">
+      <c r="G37" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10527,16 +9825,16 @@
       <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E38" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G38" s="11" t="n">
+      <c r="E38" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G38" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10554,16 +9852,16 @@
       <c r="C39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E39" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F39" s="10" t="n">
+      <c r="E39" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F39" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G39" s="11" t="n">
+      <c r="G39" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10581,16 +9879,16 @@
       <c r="C40" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D40" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E40" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F40" s="10" t="n">
+      <c r="E40" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F40" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G40" s="11" t="n">
+      <c r="G40" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10608,16 +9906,16 @@
       <c r="C41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D41" s="10" t="n">
+      <c r="D41" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E41" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F41" s="10" t="n">
+      <c r="E41" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F41" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G41" s="11" t="n">
+      <c r="G41" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10635,16 +9933,16 @@
       <c r="C42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D42" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E42" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G42" s="11" t="n">
+      <c r="E42" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G42" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10662,16 +9960,16 @@
       <c r="C43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="10" t="n">
+      <c r="D43" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E43" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F43" s="10" t="n">
+      <c r="E43" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F43" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10689,16 +9987,16 @@
       <c r="C44" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D44" s="10" t="n">
+      <c r="D44" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E44" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F44" s="10" t="n">
+      <c r="E44" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F44" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G44" s="11" t="n">
+      <c r="G44" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10716,16 +10014,16 @@
       <c r="C45" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D45" s="10" t="n">
+      <c r="D45" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E45" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F45" s="10" t="n">
+      <c r="E45" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F45" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G45" s="11" t="n">
+      <c r="G45" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10743,16 +10041,16 @@
       <c r="C46" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D46" s="10" t="n">
+      <c r="D46" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E46" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F46" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G46" s="11" t="n">
+      <c r="E46" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G46" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10770,16 +10068,16 @@
       <c r="C47" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="10" t="n">
+      <c r="D47" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E47" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F47" s="10" t="n">
+      <c r="E47" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F47" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G47" s="11" t="n">
+      <c r="G47" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10797,16 +10095,16 @@
       <c r="C48" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D48" s="10" t="n">
+      <c r="D48" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E48" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F48" s="10" t="n">
+      <c r="E48" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F48" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G48" s="11" t="n">
+      <c r="G48" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10824,16 +10122,16 @@
       <c r="C49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D49" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E49" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F49" s="10" t="n">
+      <c r="E49" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F49" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G49" s="11" t="n">
+      <c r="G49" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10851,16 +10149,16 @@
       <c r="C50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D50" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E50" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F50" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G50" s="11" t="n">
+      <c r="E50" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F50" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G50" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10878,16 +10176,16 @@
       <c r="C51" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="10" t="n">
+      <c r="D51" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E51" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F51" s="10" t="n">
+      <c r="E51" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F51" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G51" s="11" t="n">
+      <c r="G51" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -10905,16 +10203,16 @@
       <c r="C52" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D52" s="10" t="n">
+      <c r="D52" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E52" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F52" s="10" t="n">
+      <c r="E52" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F52" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G52" s="11" t="n">
+      <c r="G52" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -10932,16 +10230,16 @@
       <c r="C53" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D53" s="10" t="n">
+      <c r="D53" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E53" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F53" s="10" t="n">
+      <c r="E53" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F53" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G53" s="11" t="n">
+      <c r="G53" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -10959,16 +10257,16 @@
       <c r="C54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E54" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F54" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G54" s="11" t="n">
+      <c r="E54" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G54" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -10986,16 +10284,16 @@
       <c r="C55" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D55" s="10" t="n">
+      <c r="D55" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E55" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F55" s="10" t="n">
+      <c r="E55" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F55" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G55" s="11" t="n">
+      <c r="G55" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -11013,16 +10311,16 @@
       <c r="C56" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D56" s="10" t="n">
+      <c r="D56" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E56" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F56" s="10" t="n">
+      <c r="E56" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F56" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G56" s="11" t="n">
+      <c r="G56" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -11040,16 +10338,16 @@
       <c r="C57" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D57" s="10" t="n">
+      <c r="D57" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E57" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F57" s="10" t="n">
+      <c r="E57" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F57" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G57" s="11" t="n">
+      <c r="G57" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -11067,16 +10365,16 @@
       <c r="C58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D58" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E58" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F58" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G58" s="11" t="n">
+      <c r="E58" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F58" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G58" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -11094,16 +10392,16 @@
       <c r="C59" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D59" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E59" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F59" s="10" t="n">
+      <c r="E59" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F59" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G59" s="11" t="n">
+      <c r="G59" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -11121,16 +10419,16 @@
       <c r="C60" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D60" s="10" t="n">
+      <c r="D60" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E60" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F60" s="10" t="n">
+      <c r="E60" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F60" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G60" s="11" t="n">
+      <c r="G60" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -11148,16 +10446,16 @@
       <c r="C61" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D61" s="10" t="n">
+      <c r="D61" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E61" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F61" s="10" t="n">
+      <c r="E61" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F61" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G61" s="11" t="n">
+      <c r="G61" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -11175,16 +10473,16 @@
       <c r="C62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="10" t="n">
+      <c r="D62" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E62" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F62" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G62" s="11" t="n">
+      <c r="E62" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F62" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G62" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -11202,16 +10500,16 @@
       <c r="C63" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="10" t="n">
+      <c r="D63" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E63" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F63" s="10" t="n">
+      <c r="E63" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F63" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G63" s="11" t="n">
+      <c r="G63" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -11229,16 +10527,16 @@
       <c r="C64" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="D64" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E64" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F64" s="10" t="n">
+      <c r="E64" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F64" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G64" s="11" t="n">
+      <c r="G64" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -11256,16 +10554,16 @@
       <c r="C65" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D65" s="10" t="n">
+      <c r="D65" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E65" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F65" s="10" t="n">
+      <c r="E65" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F65" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G65" s="11" t="n">
+      <c r="G65" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -11283,16 +10581,16 @@
       <c r="C66" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D66" s="10" t="n">
+      <c r="D66" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E66" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F66" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G66" s="11" t="n">
+      <c r="E66" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F66" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G66" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -11310,16 +10608,16 @@
       <c r="C67" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D67" s="10" t="n">
+      <c r="D67" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E67" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F67" s="10" t="n">
+      <c r="E67" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F67" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G67" s="11" t="n">
+      <c r="G67" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -11337,16 +10635,16 @@
       <c r="C68" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D68" s="10" t="n">
+      <c r="D68" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E68" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F68" s="10" t="n">
+      <c r="E68" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F68" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G68" s="11" t="n">
+      <c r="G68" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -11364,16 +10662,16 @@
       <c r="C69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D69" s="10" t="n">
+      <c r="D69" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E69" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F69" s="10" t="n">
+      <c r="E69" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F69" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G69" s="11" t="n">
+      <c r="G69" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
@@ -11391,16 +10689,16 @@
       <c r="C70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D70" s="10" t="n">
+      <c r="D70" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E70" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F70" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G70" s="11" t="n">
+      <c r="E70" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F70" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G70" s="9" t="n">
         <v>46078.54166666666</v>
       </c>
     </row>
@@ -11418,16 +10716,16 @@
       <c r="C71" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D71" s="10" t="n">
+      <c r="D71" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E71" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F71" s="10" t="n">
+      <c r="E71" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F71" s="8" t="n">
         <v>23.25</v>
       </c>
-      <c r="G71" s="11" t="n">
+      <c r="G71" s="9" t="n">
         <v>46106.54166666666</v>
       </c>
     </row>
@@ -11445,16 +10743,16 @@
       <c r="C72" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D72" s="10" t="n">
+      <c r="D72" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E72" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F72" s="10" t="n">
+      <c r="E72" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F72" s="8" t="n">
         <v>15.5</v>
       </c>
-      <c r="G72" s="11" t="n">
+      <c r="G72" s="9" t="n">
         <v>46137.54166666666</v>
       </c>
     </row>
@@ -11472,340 +10770,16 @@
       <c r="C73" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D73" s="10" t="n">
+      <c r="D73" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="E73" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F73" s="10" t="n">
+      <c r="E73" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F73" s="8" t="n">
         <v>7.75</v>
       </c>
-      <c r="G73" s="11" t="n">
-        <v>46167.54166666666</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E74" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F74" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G74" s="11" t="n">
-        <v>46078.54166666666</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E75" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F75" s="10" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="G75" s="11" t="n">
-        <v>46106.54166666666</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D76" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E76" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F76" s="10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="G76" s="11" t="n">
-        <v>46137.54166666666</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D77" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E77" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F77" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="G77" s="11" t="n">
-        <v>46167.54166666666</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E78" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G78" s="11" t="n">
-        <v>46078.54166666666</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D79" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E79" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F79" s="10" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="G79" s="11" t="n">
-        <v>46106.54166666666</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D80" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E80" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F80" s="10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="G80" s="11" t="n">
-        <v>46137.54166666666</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D81" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E81" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F81" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="G81" s="11" t="n">
-        <v>46167.54166666666</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E82" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F82" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G82" s="11" t="n">
-        <v>46078.54166666666</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D83" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E83" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F83" s="10" t="n">
-        <v>23.25</v>
-      </c>
-      <c r="G83" s="11" t="n">
-        <v>46106.54166666666</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D84" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E84" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F84" s="10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="G84" s="11" t="n">
-        <v>46137.54166666666</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>marcos</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAM VERM POLO </t>
-        </is>
-      </c>
-      <c r="C85" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E85" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F85" s="10" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="G85" s="11" t="n">
+      <c r="G73" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>

--- a/dados/Controle.xlsx
+++ b/dados/Controle.xlsx
@@ -1159,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4015,6 +4015,630 @@
         <v>46047.54166666666</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E110" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F110" s="9" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F111" s="9" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F112" s="9" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F113" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F114" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F115" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E116" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F116" s="9" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F117" s="9" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F118" s="9" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F119" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F120" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F121" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E122" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F122" s="9" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C123" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F123" s="9" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F124" s="9" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F125" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F126" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F127" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E128" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F128" s="9" t="n">
+        <v>45682.54166666666</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>Compra A</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F129" s="9" t="n">
+        <v>46047.375</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>Compra B</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F130" s="9" t="n">
+        <v>46047.41666666666</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F131" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F132" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>Compra C</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F133" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4026,7 +4650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6628,6 +7252,618 @@
         <v>31</v>
       </c>
       <c r="G84" s="9" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>46047.45833333334</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G86" s="9" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G88" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G90" s="9" t="n">
+        <v>46047.45833333334</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G92" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G94" s="9" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>46047.45833333334</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G96" s="9" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G98" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>46047.58333333334</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>Venda A</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G100" s="9" t="n">
+        <v>46047.45833333334</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G101" s="9" t="n">
+        <v>46047.5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G102" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>46047.54166666666</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>GG</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G104" s="9" t="n">
         <v>46047.58333333334</v>
       </c>
     </row>
@@ -6690,7 +7926,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>12166</v>
+        <v>12558</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>31</v>
@@ -6708,7 +7944,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>30</v>
@@ -6726,7 +7962,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>31</v>
@@ -6744,7 +7980,7 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>31</v>
@@ -6760,7 +7996,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>31</v>
@@ -6777,7 +8013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8775,6 +10011,438 @@
         <v>46167.54166666666</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E74" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F74" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G74" s="9" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F75" s="8" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E76" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F76" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G76" s="9" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E77" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F77" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E78" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F78" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G78" s="9" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E79" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F79" s="8" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E80" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F80" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G80" s="9" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E81" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F81" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E82" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F82" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G82" s="9" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E83" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F83" s="8" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E84" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F84" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G84" s="9" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E85" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E86" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F86" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G86" s="9" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E87" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F87" s="8" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E88" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F88" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G88" s="9" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E89" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F89" s="8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8786,7 +10454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10780,6 +12448,438 @@
         <v>7.75</v>
       </c>
       <c r="G73" s="9" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E74" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F74" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G74" s="9" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F75" s="8" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E76" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F76" s="8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G76" s="9" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E77" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F77" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E78" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F78" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G78" s="9" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E79" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F79" s="8" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E80" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F80" s="8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G80" s="9" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E81" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F81" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E82" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F82" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G82" s="9" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E83" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F83" s="8" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E84" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F84" s="8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G84" s="9" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E85" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F85" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>46167.54166666666</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E86" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F86" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G86" s="9" t="n">
+        <v>46078.54166666666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E87" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F87" s="8" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>46106.54166666666</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E88" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F88" s="8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G88" s="9" t="n">
+        <v>46137.54166666666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>marcos</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAM VERM POLO </t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E89" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F89" s="8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G89" s="9" t="n">
         <v>46167.54166666666</v>
       </c>
     </row>
